--- a/hierachy.xlsx
+++ b/hierachy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blickflo\Documents\SanTrix Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59EB3EB-BA5A-434E-BA87-65591FA38930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09300C5-29FD-420D-AD09-ABB6B20DF2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-4770" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
     <t>f.hass@sandata.de</t>
   </si>
   <si>
-    <t>Michael Wunram</t>
-  </si>
-  <si>
-    <t>m.wunram@sandata.de</t>
+    <t>Christopher Gmeiner</t>
+  </si>
+  <si>
+    <t>admin@SanDataRnD.onmicrosoft.com</t>
   </si>
 </sst>
 </file>
@@ -452,18 +452,18 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,21 +477,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -505,21 +505,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -533,7 +533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -550,10 +550,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{C5BD6A2E-1481-4FF6-A326-0719A777C854}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{0BBDDD69-E8D6-4F61-A2EE-AA8F98CFF604}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{0BBDDD69-E8D6-4F61-A2EE-AA8F98CFF604}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{95169AD7-AE27-4460-B0B8-98520A0C400B}"/>
-    <hyperlink ref="D6" r:id="rId4" xr:uid="{D6F3594A-4F30-4266-9681-2A4D71429FCA}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{4344A1F6-4ECD-4E90-8483-A55752E92B34}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/hierachy.xlsx
+++ b/hierachy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blickflo\Documents\SanTrix Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09300C5-29FD-420D-AD09-ABB6B20DF2FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA8A4C7-5215-4193-AB3E-236F722B97D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-4770" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/hierachy.xlsx
+++ b/hierachy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blickflo\Documents\SanTrix Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA8A4C7-5215-4193-AB3E-236F722B97D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D21A08-6AFD-4CBD-A82D-C3BF07A43007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +496,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -510,7 +510,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>5</v>

--- a/hierachy.xlsx
+++ b/hierachy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blickflo\Documents\SanTrix Container\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D21A08-6AFD-4CBD-A82D-C3BF07A43007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A48959-B1BE-4A3D-AB79-214F083C68D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -452,7 +452,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
